--- a/语言测试/语言测试题库.xlsx
+++ b/语言测试/语言测试题库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28660" windowHeight="12520" activeTab="2"/>
+    <workbookView windowWidth="26860" windowHeight="12500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
     <t>While</t>
   </si>
   <si>
-    <t>Most animals little connection with ________animals of _________different kind unless they kill them for food.</t>
+    <t>Most animals have little connection with ________animals of _________different kind unless they kill them for food.</t>
   </si>
   <si>
     <t>the ; a</t>
@@ -2184,7 +2184,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2823,8 +2823,8 @@
   <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2949,7 +2949,7 @@
         <v>136</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>137</v>
@@ -3459,8 +3459,8 @@
   <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
